--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashanth.venkatesan\Documents\Efile\RE_Efile_IT_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A9928F-229F-41E3-AC17-A2DE140A7FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92819AC1-046D-4470-8666-61FA5B5EF6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Json_Excel</t>
-  </si>
-  <si>
     <t>Utility_Path</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
   </si>
   <si>
     <t>C:\Users\prashanth.venkatesan\AppData\Local\Programs\ITDe-Filing-2023\ITDe-Filing-2023.exe</t>
-  </si>
-  <si>
-    <t>SheetName</t>
   </si>
   <si>
     <t>C:\Users\prashanth.venkatesan\Documents\UiPath\RE_Efile_IT_Performer\RPA Jsons\Processed\</t>
@@ -564,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -615,7 +609,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -646,34 +640,34 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2837,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2885,22 +2879,8 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
